--- a/_Lang_Korean/Lang/KR/Game/Category.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>

--- a/_Lang_Korean/Lang/KR/Game/Category.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Category.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">bodyparts</t>
   </si>
   <si>
-    <t xml:space="preserve">신체 파트</t>
+    <t xml:space="preserve">신체 파츠</t>
   </si>
   <si>
     <t xml:space="preserve">Body Parts</t>
@@ -550,7 +550,7 @@
     <t xml:space="preserve">nuts</t>
   </si>
   <si>
-    <t xml:space="preserve">견과류</t>
+    <t xml:space="preserve">열매</t>
   </si>
   <si>
     <t xml:space="preserve">Nuts</t>
@@ -1453,7 +1453,7 @@
     <t xml:space="preserve">junk</t>
   </si>
   <si>
-    <t xml:space="preserve">정크</t>
+    <t xml:space="preserve">고물</t>
   </si>
   <si>
     <t xml:space="preserve">Junk</t>
@@ -1561,7 +1561,7 @@
     <t xml:space="preserve">trap</t>
   </si>
   <si>
-    <t xml:space="preserve">덫</t>
+    <t xml:space="preserve">함정</t>
   </si>
   <si>
     <t xml:space="preserve">Trap</t>
@@ -1750,14 +1750,14 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C130" activeCellId="0" sqref="C130"/>
+      <selection pane="bottomLeft" activeCell="C122" activeCellId="0" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_Lang_Korean/Lang/KR/Game/Category.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Category.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.25</t>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">New Items</t>
